--- a/src/main/resources/raw/tes.xlsx
+++ b/src/main/resources/raw/tes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>NIP</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>aaa</t>
+  </si>
+  <si>
+    <t>$_JM_XLS_Detail_2</t>
+  </si>
+  <si>
+    <t>$_JM_XLS_Detail_1</t>
+  </si>
+  <si>
+    <t>$_JM_XLS_Detail_3</t>
+  </si>
+  <si>
+    <t>$_JM_XLS_Detail_5</t>
   </si>
 </sst>
 </file>
@@ -425,7 +437,7 @@
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,13 +471,21 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="str">
         <f>C6</f>
-        <v>0</v>
+        <v>$_JM_XLS_Detail_1</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
